--- a/biology/Zoologie/Godyris_zavaleta/Godyris_zavaleta.xlsx
+++ b/biology/Zoologie/Godyris_zavaleta/Godyris_zavaleta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Godyris zavaleta est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Godyris.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Godyris zavaleta a été décrit par William Chapman Hewitson en 1855 sous le nom initial de' Ithonia zavaleta[1].
-Sous-espèces
-Godyris zavaleta zavaleta; présent en Colombie
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Godyris zavaleta a été décrit par William Chapman Hewitson en 1855 sous le nom initial de' Ithonia zavaleta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Godyris zavaleta zavaleta; présent en Colombie
 Godyris zavaleta baudoensis Vitale &amp; Rodriguez, 2004; présent en Colombie
 Godyris zavaleta caesiopicta (Niepelt, 1915); présent au Costa Rica et à Panama
 Godyris zavaleta eutelina Brévignon, 1993; présent au Surinam, en Guyana et en Guyane.
@@ -524,46 +573,12 @@
 Godyris zavaleta matronalis (Weymer, 1883); présent en Équateur
 Godyris zavaleta petersii (Dewitz, 1877); présent en Colombie
 Godyris zavaleta rosata Vitale &amp; Rodriguez, 2004
-Godyris zavaleta sosunga (Reakirt, [1866]); présent au Honduras
+Godyris zavaleta sosunga (Reakirt, ); présent au Honduras
 Godyris zavaleta telesilla (Hewitson, 1863); présent en Équateur
 Godyris zavaleta zygia (Godman &amp; Salvin, 1877); présent au Costa Rica et à Panama
 Godyris zavaleta ssp Lamas; présent au Pérou.
 Godyris zavaleta ssp Lamas; présent en Bolivie
-Godyris zavaleta ssp Lamas; présent au Brésil[1].
-Nom vernaculaire
-Godyris zavaleta se nomme Zavaleta Glasswing en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Godyris_zavaleta</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Godyris_zavaleta</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Godyris zavaleta est un papillon d'une envergure de 60 mm à 65 mm, aux ailes antérieures à apex arrondi, angle externe anguleux et bord interne concave[3],[4]. Les ailes sont transparentes à veines marron et bordure marron sur le dessus, orange sur le revers.
-</t>
+Godyris zavaleta ssp Lamas; présent au Brésil.</t>
         </is>
       </c>
     </row>
@@ -588,13 +603,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Solanum brenesii pour Godyris zavaleta caesiopicta et Cestrum nocturnum pour  Godyris zavaleta zygiaref name = funet/&gt;.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Godyris zavaleta se nomme Zavaleta Glasswing en anglais.
 </t>
         </is>
       </c>
@@ -620,16 +640,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Godyris zavaleta est un papillon d'une envergure de 60 mm à 65 mm, aux ailes antérieures à apex arrondi, angle externe anguleux et bord interne concave,. Les ailes sont transparentes à veines marron et bordure marron sur le dessus, orange sur le revers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Solanum brenesii pour Godyris zavaleta caesiopicta et Cestrum nocturnum pour  Godyris zavaleta zygiaref name = funet/&gt;.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Godyris zavaleta est présent au Mexique, au Costa Rica, au Honduras, à Panama, en Colombie, en Équateur, en Bolivie, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane[1].
-Biotope
-Godyris zavaleta réside dans la forêt tropicale humide[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Godyris zavaleta est présent au Mexique, au Costa Rica, au Honduras, à Panama, en Colombie, en Équateur, en Bolivie, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Godyris zavaleta réside dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Godyris_zavaleta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Godyris zavaleta, sur Wikimedia CommonsGodyris zavaleta, sur Wikispecies
 </t>
